--- a/Qmn.xlsx
+++ b/Qmn.xlsx
@@ -19,9 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>qsigned</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>q1.1</t>
+  </si>
+  <si>
+    <t>q2.0</t>
+  </si>
+  <si>
+    <t>Qs3.0</t>
+  </si>
+  <si>
+    <t>Qs2.1</t>
+  </si>
+  <si>
+    <t>Qs1.2</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
@@ -70,7 +106,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -82,21 +118,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,15 +505,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16" width="6" customWidth="1"/>
+    <col min="1" max="9" width="6" customWidth="1"/>
+    <col min="10" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="16" width="6" customWidth="1"/>
     <col min="17" max="17" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -526,7 +607,7 @@
         <v>0.5</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:P2" si="1">2^-J1</f>
+        <f t="shared" ref="J2:O2" si="1">2^-J1</f>
         <v>0.25</v>
       </c>
       <c r="K2">
@@ -603,7 +684,7 @@
         <v>128</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:P5" si="2">IF(B4=1,B$2,)</f>
+        <f t="shared" ref="B5:O5" si="2">IF(B4=1,B$2,)</f>
         <v>64</v>
       </c>
       <c r="C5">
@@ -661,6 +742,449 @@
       <c r="R5">
         <f>SUM(A5:P5)</f>
         <v>255.9921875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
+      </c>
+      <c r="G18">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>3.5</v>
+      </c>
+      <c r="G19">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>7.5</v>
+      </c>
+      <c r="G20">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>-3</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>-4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="3:18">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>-5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="3:18">
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>-6</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="3:18">
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>-7</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>-8</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-4</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="3:18">
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>-3</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="3:18">
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="3:18">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="3:18">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="3:18">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>-2</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="3:18">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>-0.5</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="3:18">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="3:18">
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <f>-2^1</f>
+        <v>-2</v>
+      </c>
+      <c r="G38">
+        <f>-(2^0)</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
